--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3986.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3986.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274123383325594</v>
+        <v>0.9773720502853394</v>
       </c>
       <c r="B1">
-        <v>2.721105016499313</v>
+        <v>1.877420425415039</v>
       </c>
       <c r="C1">
-        <v>4.924456432659953</v>
+        <v>6.192467212677002</v>
       </c>
       <c r="D1">
-        <v>3.286811942558131</v>
+        <v>3.599578619003296</v>
       </c>
       <c r="E1">
-        <v>1.326722348949579</v>
+        <v>1.325616359710693</v>
       </c>
     </row>
   </sheetData>
